--- a/results/comparaison/WM/depolarization/max_normalized.xlsx
+++ b/results/comparaison/WM/depolarization/max_normalized.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:101">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -661,8 +661,20 @@
       <c r="CS1" s="1">
         <v>95</v>
       </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -954,47 +966,92 @@
       <c r="CS2">
         <v>1</v>
       </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1.008695652173913</v>
       </c>
+      <c r="C3">
+        <v>0.9576271186440678</v>
+      </c>
+      <c r="D3">
+        <v>0.9661016949152542</v>
+      </c>
       <c r="E3">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="F3">
         <v>0.9915254237288136</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>1.008695652173913</v>
       </c>
-      <c r="H3">
+      <c r="I3">
+        <v>0.9572649572649573</v>
+      </c>
+      <c r="J3">
         <v>0.9915966386554622</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>1.008695652173913</v>
       </c>
-      <c r="K3">
-        <v>1.008620689655172</v>
+      <c r="L3">
+        <v>0.9914529914529915</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>1.008620689655172</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9914529914529915</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
       <c r="S3">
-        <v>0.9915254237288136</v>
+        <v>0.9576271186440678</v>
+      </c>
+      <c r="T3">
+        <v>0.9743589743589743</v>
+      </c>
+      <c r="U3">
+        <v>0.9914529914529915</v>
+      </c>
+      <c r="V3">
+        <v>0.9914529914529915</v>
       </c>
       <c r="W3">
         <v>0.9915966386554622</v>
       </c>
+      <c r="X3">
+        <v>1.008620689655172</v>
+      </c>
       <c r="Y3">
         <v>1</v>
       </c>
@@ -1002,117 +1059,282 @@
         <v>1</v>
       </c>
       <c r="AA3">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="AB3">
+        <v>1.026315789473684</v>
+      </c>
+      <c r="AC3">
+        <v>0.9826086956521739</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="AH3">
+        <v>1.017699115044248</v>
+      </c>
+      <c r="AI3">
+        <v>1.008547008547009</v>
+      </c>
+      <c r="AJ3">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="AL3">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="AM3">
+        <v>0.9743589743589743</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>1.035087719298246</v>
+      </c>
+      <c r="AP3">
+        <v>1.008547008547009</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>1.008771929824561</v>
+      </c>
+      <c r="AS3">
+        <v>1.056603773584906</v>
+      </c>
+      <c r="AT3">
+        <v>1.017391304347826</v>
+      </c>
+      <c r="AU3">
+        <v>0.9912280701754387</v>
+      </c>
+      <c r="AV3">
+        <v>1.008547008547009</v>
+      </c>
+      <c r="AX3">
+        <v>0.9827586206896551</v>
+      </c>
+      <c r="AY3">
+        <v>1.02803738317757</v>
+      </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="BB3">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BD3">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="BE3">
+        <v>1.026548672566372</v>
+      </c>
+      <c r="BF3">
+        <v>1.008547008547009</v>
+      </c>
+      <c r="BG3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
+        <v>1.017241379310345</v>
+      </c>
+      <c r="BI3">
+        <v>1.054545454545455</v>
+      </c>
+      <c r="BJ3">
+        <v>1</v>
+      </c>
+      <c r="BK3">
+        <v>1</v>
+      </c>
+      <c r="BM3">
+        <v>1.017391304347826</v>
+      </c>
+      <c r="BN3">
+        <v>1.026315789473684</v>
+      </c>
+      <c r="BO3">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="BP3">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="BQ3">
+        <v>1</v>
+      </c>
+      <c r="BR3">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="BS3">
+        <v>1.076190476190476</v>
+      </c>
+      <c r="BT3">
+        <v>1</v>
+      </c>
+      <c r="BU3">
+        <v>1.008547008547009</v>
+      </c>
+      <c r="BV3">
+        <v>0.9739130434782608</v>
+      </c>
+      <c r="BW3">
+        <v>1.017241379310345</v>
+      </c>
+      <c r="BX3">
+        <v>1.017241379310345</v>
+      </c>
+      <c r="BY3">
+        <v>1.019230769230769</v>
+      </c>
+      <c r="BZ3">
+        <v>1</v>
+      </c>
+      <c r="CA3">
+        <v>0.9827586206896551</v>
+      </c>
+      <c r="CB3">
+        <v>1.019047619047619</v>
+      </c>
+      <c r="CC3">
+        <v>1.008547008547009</v>
+      </c>
+      <c r="CD3">
+        <v>1</v>
+      </c>
+      <c r="CE3">
+        <v>0.905982905982906</v>
+      </c>
+      <c r="CF3">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="CG3">
+        <v>1.116504854368932</v>
+      </c>
+      <c r="CH3">
         <v>0.9915254237288136</v>
       </c>
-      <c r="AB3">
-        <v>1.008547008547009</v>
-      </c>
-      <c r="AQ3">
-        <v>1.008547008547009</v>
-      </c>
-      <c r="AR3">
-        <v>1</v>
-      </c>
-      <c r="AS3">
-        <v>1.008620689655172</v>
-      </c>
-      <c r="AT3">
-        <v>1</v>
-      </c>
-      <c r="AU3">
-        <v>1</v>
-      </c>
-      <c r="AX3">
-        <v>1.008547008547009</v>
-      </c>
-      <c r="BB3">
-        <v>1.017391304347826</v>
-      </c>
-      <c r="BC3">
-        <v>1</v>
-      </c>
-      <c r="BF3">
-        <v>1.017241379310345</v>
-      </c>
-      <c r="BI3">
-        <v>1.017241379310345</v>
-      </c>
-      <c r="BJ3">
-        <v>1.017391304347826</v>
-      </c>
-      <c r="BK3">
-        <v>1.017391304347826</v>
-      </c>
-      <c r="BO3">
-        <v>1.017391304347826</v>
-      </c>
-      <c r="BP3">
+      <c r="CI3">
         <v>1.008928571428571</v>
       </c>
-      <c r="BQ3">
-        <v>1.017241379310345</v>
-      </c>
-      <c r="BR3">
-        <v>1.008620689655172</v>
-      </c>
-      <c r="BS3">
-        <v>1.045045045045045</v>
-      </c>
-      <c r="BU3">
+      <c r="CK3">
+        <v>0.9913793103448276</v>
+      </c>
+      <c r="CL3">
+        <v>1.064220183486239</v>
+      </c>
+      <c r="CM3">
+        <v>1.008695652173913</v>
+      </c>
+      <c r="CN3">
+        <v>1.138613861386139</v>
+      </c>
+      <c r="CO3">
+        <v>1.008771929824561</v>
+      </c>
+      <c r="CP3">
+        <v>0.9823008849557522</v>
+      </c>
+      <c r="CQ3">
+        <v>1</v>
+      </c>
+      <c r="CR3">
+        <v>1.044642857142857</v>
+      </c>
+      <c r="CS3">
+        <v>1.073394495412844</v>
+      </c>
+      <c r="CT3">
+        <v>0.9915254237288136</v>
+      </c>
+      <c r="CU3">
+        <v>0.9727272727272727</v>
+      </c>
+      <c r="CV3">
         <v>1.026315789473684</v>
       </c>
-      <c r="BV3">
-        <v>1.008620689655172</v>
-      </c>
-      <c r="CG3">
-        <v>1</v>
-      </c>
-      <c r="CK3">
-        <v>0.9827586206896551</v>
-      </c>
-      <c r="CN3">
-        <v>0.9913793103448276</v>
-      </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>1.017391304347826</v>
       </c>
+      <c r="C4">
+        <v>0.9915254237288136</v>
+      </c>
+      <c r="D4">
+        <v>0.9915254237288136</v>
+      </c>
       <c r="E4">
-        <v>1</v>
+        <v>1.017241379310345</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>1.008695652173913</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
       <c r="I4">
+        <v>1.008547008547009</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>1.017391304347826</v>
       </c>
-      <c r="K4">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="N4">
         <v>1.017241379310345</v>
       </c>
-      <c r="M4">
-        <v>1.008620689655172</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
       <c r="O4">
-        <v>1.008620689655172</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="R4">
         <v>1.008474576271186</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="T4">
+        <v>0.9914529914529915</v>
+      </c>
+      <c r="U4">
+        <v>0.9401709401709402</v>
+      </c>
+      <c r="V4">
+        <v>0.982905982905983</v>
       </c>
       <c r="W4">
         <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1.008620689655172</v>
       </c>
       <c r="Y4">
         <v>1.008474576271186</v>
@@ -1120,232 +1342,559 @@
       <c r="Z4">
         <v>1.008474576271186</v>
       </c>
+      <c r="AA4">
+        <v>0.9827586206896551</v>
+      </c>
       <c r="AB4">
+        <v>1.026315789473684</v>
+      </c>
+      <c r="AC4">
+        <v>1.008695652173913</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="AH4">
+        <v>1.026548672566372</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>1.017241379310345</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>0.9914529914529915</v>
+      </c>
+      <c r="AN4">
+        <v>0.9914529914529915</v>
+      </c>
+      <c r="AO4">
+        <v>1.026315789473684</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>0.9913793103448276</v>
+      </c>
+      <c r="AR4">
+        <v>1.026315789473684</v>
+      </c>
+      <c r="AT4">
+        <v>1.017391304347826</v>
+      </c>
+      <c r="AU4">
+        <v>1.026315789473684</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
         <v>1.008547008547009</v>
       </c>
-      <c r="AH4">
+      <c r="BA4">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="BB4">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="BC4">
+        <v>0.9568965517241379</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
+      <c r="BE4">
+        <v>1.017699115044248</v>
+      </c>
+      <c r="BF4">
+        <v>1.008547008547009</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="BI4">
+        <v>1.045454545454546</v>
+      </c>
+      <c r="BJ4">
         <v>0.9914529914529915</v>
       </c>
-      <c r="AJ4">
+      <c r="BK4">
+        <v>0.9912280701754387</v>
+      </c>
+      <c r="BL4">
+        <v>0.9646017699115045</v>
+      </c>
+      <c r="BM4">
+        <v>1.008695652173913</v>
+      </c>
+      <c r="BN4">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="BO4">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="BP4">
         <v>1.026315789473684</v>
       </c>
-      <c r="AK4">
+      <c r="BQ4">
+        <v>1</v>
+      </c>
+      <c r="BR4">
+        <v>1.008771929824561</v>
+      </c>
+      <c r="BT4">
+        <v>1</v>
+      </c>
+      <c r="BU4">
+        <v>1</v>
+      </c>
+      <c r="BV4">
+        <v>0.9739130434782608</v>
+      </c>
+      <c r="BW4">
+        <v>1.017241379310345</v>
+      </c>
+      <c r="BX4">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="BY4">
+        <v>1.038461538461539</v>
+      </c>
+      <c r="BZ4">
+        <v>1</v>
+      </c>
+      <c r="CA4">
+        <v>1</v>
+      </c>
+      <c r="CB4">
+        <v>1.057142857142857</v>
+      </c>
+      <c r="CC4">
+        <v>1</v>
+      </c>
+      <c r="CD4">
+        <v>0.9913793103448276</v>
+      </c>
+      <c r="CE4">
+        <v>0.9145299145299145</v>
+      </c>
+      <c r="CF4">
+        <v>1.017857142857143</v>
+      </c>
+      <c r="CG4">
+        <v>1</v>
+      </c>
+      <c r="CH4">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="CI4">
+        <v>1.026785714285714</v>
+      </c>
+      <c r="CK4">
+        <v>0.9827586206896551</v>
+      </c>
+      <c r="CL4">
+        <v>1.055045871559633</v>
+      </c>
+      <c r="CM4">
+        <v>0.9826086956521739</v>
+      </c>
+      <c r="CN4">
+        <v>1.108910891089109</v>
+      </c>
+      <c r="CO4">
+        <v>0.9649122807017544</v>
+      </c>
+      <c r="CP4">
+        <v>1.017699115044248</v>
+      </c>
+      <c r="CQ4">
+        <v>1</v>
+      </c>
+      <c r="CR4">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="CS4">
+        <v>1.064220183486239</v>
+      </c>
+      <c r="CT4">
+        <v>1</v>
+      </c>
+      <c r="CU4">
+        <v>1.045454545454546</v>
+      </c>
+      <c r="CV4">
         <v>1.026315789473684</v>
       </c>
-      <c r="AM4">
-        <v>0.9915254237288136</v>
-      </c>
-      <c r="AQ4">
-        <v>1.008547008547009</v>
-      </c>
-      <c r="AR4">
-        <v>0.9915254237288136</v>
-      </c>
-      <c r="AS4">
-        <v>1.008620689655172</v>
-      </c>
-      <c r="AT4">
-        <v>1</v>
-      </c>
-      <c r="AU4">
-        <v>1</v>
-      </c>
-      <c r="AX4">
-        <v>1</v>
-      </c>
-      <c r="BB4">
-        <v>1.017391304347826</v>
-      </c>
-      <c r="BC4">
-        <v>0.9915254237288136</v>
-      </c>
-      <c r="BI4">
-        <v>1.017241379310345</v>
-      </c>
-      <c r="BJ4">
-        <v>1.008695652173913</v>
-      </c>
-      <c r="BK4">
-        <v>1.008695652173913</v>
-      </c>
-      <c r="BP4">
-        <v>1.017857142857143</v>
-      </c>
-      <c r="BS4">
-        <v>1.036036036036036</v>
-      </c>
-      <c r="BU4">
-        <v>1.026315789473684</v>
-      </c>
-      <c r="BV4">
-        <v>1.017241379310345</v>
-      </c>
-      <c r="CF4">
-        <v>1</v>
-      </c>
-      <c r="CH4">
-        <v>0.9826086956521739</v>
-      </c>
-      <c r="CK4">
-        <v>0.9913793103448276</v>
-      </c>
-      <c r="CN4">
-        <v>0.9827586206896551</v>
+      <c r="CW4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>1.008695652173913</v>
       </c>
+      <c r="C5">
+        <v>0.9661016949152542</v>
+      </c>
       <c r="D5">
-        <v>1.008620689655172</v>
+        <v>0.9745762711864407</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>1.008620689655172</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>1.017391304347826</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>0.9915966386554622</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>1.008695652173913</v>
       </c>
-      <c r="K5">
-        <v>1.008620689655172</v>
+      <c r="L5">
+        <v>0.9743589743589743</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>1.008620689655172</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9572649572649573</v>
       </c>
       <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
         <v>1.008474576271186</v>
       </c>
       <c r="S5">
+        <v>0.9576271186440678</v>
+      </c>
+      <c r="T5">
+        <v>0.9743589743589743</v>
+      </c>
+      <c r="U5">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="V5">
+        <v>0.9487179487179487</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>0.9741379310344828</v>
+      </c>
+      <c r="AB5">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="AC5">
+        <v>0.9913043478260869</v>
+      </c>
+      <c r="AD5">
         <v>0.9915254237288136</v>
       </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1.008771929824561</v>
+      </c>
+      <c r="AH5">
+        <v>1.017699115044248</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>0.9914529914529915</v>
+      </c>
+      <c r="AN5">
+        <v>0.982905982905983</v>
+      </c>
+      <c r="AO5">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="AP5">
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.9827586206896551</v>
       </c>
       <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>1.037735849056604</v>
+      </c>
+      <c r="AT5">
+        <v>1.017391304347826</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>1.009345794392523</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="BB5">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="BC5">
+        <v>0.9568965517241379</v>
+      </c>
+      <c r="BD5">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <v>0.9469026548672566</v>
+      </c>
+      <c r="BF5">
+        <v>1.008547008547009</v>
+      </c>
+      <c r="BG5">
         <v>0.9915254237288136</v>
       </c>
-      <c r="AS5">
-        <v>1</v>
-      </c>
-      <c r="AT5">
-        <v>0.9915254237288136</v>
-      </c>
-      <c r="AU5">
-        <v>1</v>
-      </c>
-      <c r="AX5">
-        <v>1</v>
-      </c>
-      <c r="BB5">
-        <v>1.017391304347826</v>
-      </c>
-      <c r="BC5">
-        <v>0.9915254237288136</v>
-      </c>
-      <c r="BE5">
+      <c r="BH5">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="BI5">
+        <v>1.054545454545455</v>
+      </c>
+      <c r="BJ5">
+        <v>0.9914529914529915</v>
+      </c>
+      <c r="BK5">
+        <v>1</v>
+      </c>
+      <c r="BM5">
         <v>1.008695652173913</v>
       </c>
-      <c r="BI5">
+      <c r="BN5">
+        <v>1.035087719298246</v>
+      </c>
+      <c r="BO5">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="BP5">
+        <v>1.026315789473684</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="BT5">
+        <v>1.008547008547009</v>
+      </c>
+      <c r="BU5">
+        <v>1.008547008547009</v>
+      </c>
+      <c r="BV5">
+        <v>0.9826086956521739</v>
+      </c>
+      <c r="BW5">
         <v>1.017241379310345</v>
       </c>
-      <c r="BK5">
-        <v>1.008695652173913</v>
-      </c>
-      <c r="BP5">
+      <c r="BX5">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="BY5">
+        <v>1.038461538461539</v>
+      </c>
+      <c r="BZ5">
+        <v>1</v>
+      </c>
+      <c r="CA5">
+        <v>0.9827586206896551</v>
+      </c>
+      <c r="CB5">
+        <v>1.038095238095238</v>
+      </c>
+      <c r="CC5">
+        <v>1.008547008547009</v>
+      </c>
+      <c r="CD5">
+        <v>1</v>
+      </c>
+      <c r="CE5">
+        <v>0.9401709401709402</v>
+      </c>
+      <c r="CF5">
+        <v>1.044642857142857</v>
+      </c>
+      <c r="CG5">
+        <v>1.12621359223301</v>
+      </c>
+      <c r="CH5">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="CI5">
         <v>1.026785714285714</v>
       </c>
-      <c r="BS5">
-        <v>1.045045045045045</v>
-      </c>
-      <c r="BU5">
+      <c r="CK5">
+        <v>0.9827586206896551</v>
+      </c>
+      <c r="CL5">
+        <v>1.064220183486239</v>
+      </c>
+      <c r="CM5">
+        <v>1</v>
+      </c>
+      <c r="CN5">
+        <v>1.138613861386139</v>
+      </c>
+      <c r="CO5">
+        <v>1</v>
+      </c>
+      <c r="CP5">
+        <v>1.017699115044248</v>
+      </c>
+      <c r="CQ5">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="CR5">
+        <v>1.044642857142857</v>
+      </c>
+      <c r="CS5">
+        <v>1.064220183486239</v>
+      </c>
+      <c r="CT5">
+        <v>0.9661016949152542</v>
+      </c>
+      <c r="CU5">
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="CV5">
         <v>1.026315789473684</v>
       </c>
-      <c r="BV5">
-        <v>1.008620689655172</v>
-      </c>
-      <c r="BZ5">
-        <v>1.063636363636364</v>
-      </c>
-      <c r="CC5">
-        <v>1.044642857142857</v>
-      </c>
-      <c r="CH5">
-        <v>1.017391304347826</v>
-      </c>
-      <c r="CK5">
-        <v>1</v>
-      </c>
-      <c r="CP5">
-        <v>1.04424778761062</v>
-      </c>
-      <c r="CS5">
-        <v>1.044642857142857</v>
+      <c r="CW5">
+        <v>1.017241379310345</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>1.008695652173913</v>
       </c>
+      <c r="C6">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="D6">
+        <v>0.9491525423728814</v>
+      </c>
       <c r="E6">
-        <v>1</v>
+        <v>1.008620689655172</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>1.017391304347826</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="J6">
         <v>0.9915966386554622</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>1.017391304347826</v>
       </c>
-      <c r="K6">
-        <v>1.008620689655172</v>
+      <c r="L6">
+        <v>0.9658119658119658</v>
       </c>
       <c r="M6">
         <v>0.9827586206896551</v>
       </c>
       <c r="N6">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="O6">
+        <v>0.9487179487179487</v>
+      </c>
+      <c r="P6">
         <v>0.9915254237288136</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
         <v>1.008474576271186</v>
       </c>
       <c r="S6">
-        <v>0.9915254237288136</v>
+        <v>0.9406779661016949</v>
+      </c>
+      <c r="T6">
+        <v>0.9914529914529915</v>
+      </c>
+      <c r="U6">
+        <v>0.9572649572649573</v>
+      </c>
+      <c r="V6">
+        <v>0.8974358974358975</v>
       </c>
       <c r="W6">
         <v>0.9915966386554622</v>
       </c>
+      <c r="X6">
+        <v>0.8793103448275862</v>
+      </c>
       <c r="Y6">
         <v>1</v>
       </c>
@@ -1353,204 +1902,513 @@
         <v>1</v>
       </c>
       <c r="AA6">
+        <v>0.9741379310344828</v>
+      </c>
+      <c r="AB6">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="AC6">
+        <v>0.9826086956521739</v>
+      </c>
+      <c r="AD6">
+        <v>0.9915254237288136</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1.008771929824561</v>
+      </c>
+      <c r="AH6">
+        <v>1.017699115044248</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="AK6">
+        <v>0.9739130434782608</v>
+      </c>
+      <c r="AL6">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="AM6">
+        <v>0.982905982905983</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <v>1.026315789473684</v>
+      </c>
+      <c r="AP6">
+        <v>1.008547008547009</v>
+      </c>
+      <c r="AQ6">
+        <v>0.9827586206896551</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AS6">
+        <v>1.037735849056604</v>
+      </c>
+      <c r="AT6">
+        <v>1.026086956521739</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1.008547008547009</v>
+      </c>
+      <c r="AW6">
+        <v>0.9658119658119658</v>
+      </c>
+      <c r="AX6">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="AY6">
+        <v>0.97196261682243</v>
+      </c>
+      <c r="AZ6">
+        <v>0.9914529914529915</v>
+      </c>
+      <c r="BA6">
+        <v>1.008771929824561</v>
+      </c>
+      <c r="BB6">
+        <v>1.008771929824561</v>
+      </c>
+      <c r="BC6">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="BD6">
+        <v>1</v>
+      </c>
+      <c r="BE6">
+        <v>0.9823008849557522</v>
+      </c>
+      <c r="BF6">
+        <v>1.008547008547009</v>
+      </c>
+      <c r="BG6">
         <v>0.9830508474576272</v>
       </c>
-      <c r="AB6">
+      <c r="BH6">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="BI6">
+        <v>1.045454545454546</v>
+      </c>
+      <c r="BJ6">
+        <v>0.9743589743589743</v>
+      </c>
+      <c r="BK6">
+        <v>0.9210526315789475</v>
+      </c>
+      <c r="BL6">
+        <v>0.9469026548672566</v>
+      </c>
+      <c r="BM6">
+        <v>1.008695652173913</v>
+      </c>
+      <c r="BN6">
+        <v>1.008771929824561</v>
+      </c>
+      <c r="BO6">
+        <v>1</v>
+      </c>
+      <c r="BP6">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9914529914529915</v>
+      </c>
+      <c r="BR6">
+        <v>1.008771929824561</v>
+      </c>
+      <c r="BS6">
+        <v>1.066666666666667</v>
+      </c>
+      <c r="BT6">
+        <v>1</v>
+      </c>
+      <c r="BU6">
+        <v>1</v>
+      </c>
+      <c r="BV6">
+        <v>0.9217391304347825</v>
+      </c>
+      <c r="BW6">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="BX6">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="BY6">
+        <v>1.115384615384615</v>
+      </c>
+      <c r="BZ6">
+        <v>1</v>
+      </c>
+      <c r="CA6">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="CB6">
+        <v>0.9904761904761905</v>
+      </c>
+      <c r="CC6">
         <v>1.008547008547009</v>
       </c>
-      <c r="AQ6">
-        <v>1.008547008547009</v>
-      </c>
-      <c r="AR6">
+      <c r="CD6">
+        <v>0.9827586206896551</v>
+      </c>
+      <c r="CE6">
+        <v>0.905982905982906</v>
+      </c>
+      <c r="CF6">
+        <v>0.9732142857142857</v>
+      </c>
+      <c r="CG6">
+        <v>1.106796116504854</v>
+      </c>
+      <c r="CH6">
         <v>0.9915254237288136</v>
       </c>
-      <c r="AS6">
-        <v>1</v>
-      </c>
-      <c r="AT6">
+      <c r="CI6">
+        <v>1.026785714285714</v>
+      </c>
+      <c r="CK6">
+        <v>0.9913793103448276</v>
+      </c>
+      <c r="CL6">
+        <v>1.064220183486239</v>
+      </c>
+      <c r="CM6">
+        <v>0.9826086956521739</v>
+      </c>
+      <c r="CN6">
+        <v>1.118811881188119</v>
+      </c>
+      <c r="CO6">
+        <v>0.9561403508771931</v>
+      </c>
+      <c r="CP6">
+        <v>0.9911504424778761</v>
+      </c>
+      <c r="CQ6">
+        <v>0.9913793103448276</v>
+      </c>
+      <c r="CR6">
+        <v>1.044642857142857</v>
+      </c>
+      <c r="CS6">
+        <v>1.082568807339449</v>
+      </c>
+      <c r="CT6">
         <v>0.9915254237288136</v>
       </c>
-      <c r="AU6">
-        <v>1</v>
-      </c>
-      <c r="AX6">
-        <v>1</v>
-      </c>
-      <c r="AZ6">
-        <v>1.045454545454546</v>
-      </c>
-      <c r="BB6">
-        <v>1.008695652173913</v>
-      </c>
-      <c r="BE6">
-        <v>1</v>
-      </c>
-      <c r="BI6">
-        <v>1.008620689655172</v>
-      </c>
-      <c r="BJ6">
-        <v>1.008695652173913</v>
-      </c>
-      <c r="BK6">
-        <v>0.9913043478260869</v>
-      </c>
-      <c r="BP6">
-        <v>1.017857142857143</v>
-      </c>
-      <c r="BR6">
-        <v>1.008620689655172</v>
-      </c>
-      <c r="BS6">
-        <v>1.036036036036036</v>
-      </c>
-      <c r="BU6">
+      <c r="CU6">
+        <v>0.9272727272727272</v>
+      </c>
+      <c r="CV6">
         <v>1.017543859649123</v>
       </c>
-      <c r="BV6">
-        <v>1.008620689655172</v>
-      </c>
-      <c r="BZ6">
-        <v>1.054545454545455</v>
-      </c>
-      <c r="CA6">
-        <v>0.9915254237288136</v>
-      </c>
-      <c r="CC6">
-        <v>1.044642857142857</v>
-      </c>
-      <c r="CF6">
-        <v>1.008620689655172</v>
-      </c>
-      <c r="CG6">
-        <v>1</v>
-      </c>
-      <c r="CH6">
-        <v>0.9826086956521739</v>
-      </c>
-      <c r="CK6">
-        <v>0.9827586206896551</v>
-      </c>
-      <c r="CN6">
-        <v>1</v>
-      </c>
-      <c r="CP6">
-        <v>1.035398230088496</v>
-      </c>
-      <c r="CR6">
-        <v>1.055555555555556</v>
-      </c>
-      <c r="CS6">
-        <v>1.044642857142857</v>
-      </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>1.017391304347826</v>
       </c>
+      <c r="C7">
+        <v>0.9576271186440678</v>
+      </c>
+      <c r="D7">
+        <v>0.9745762711864407</v>
+      </c>
       <c r="E7">
-        <v>1</v>
+        <v>1.008620689655172</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>1.017391304347826</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
       <c r="I7">
+        <v>1.008547008547009</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>1.008695652173913</v>
       </c>
-      <c r="K7">
+      <c r="L7">
+        <v>0.982905982905983</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>1.017241379310345</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
       <c r="O7">
-        <v>1.008620689655172</v>
+        <v>0.9658119658119658</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
+      <c r="Q7">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
       <c r="S7">
-        <v>1</v>
+        <v>0.9745762711864407</v>
+      </c>
+      <c r="T7">
+        <v>0.982905982905983</v>
+      </c>
+      <c r="U7">
+        <v>0.9316239316239316</v>
+      </c>
+      <c r="V7">
+        <v>0.9487179487179487</v>
       </c>
       <c r="W7">
         <v>1</v>
       </c>
+      <c r="X7">
+        <v>1.008620689655172</v>
+      </c>
       <c r="Y7">
         <v>1</v>
       </c>
       <c r="Z7">
         <v>1</v>
       </c>
+      <c r="AA7">
+        <v>0.9741379310344828</v>
+      </c>
       <c r="AB7">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="AC7">
+        <v>0.9913043478260869</v>
+      </c>
+      <c r="AD7">
+        <v>0.9915254237288136</v>
+      </c>
+      <c r="AE7">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="AF7">
+        <v>0.9915254237288136</v>
+      </c>
+      <c r="AG7">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="AH7">
+        <v>1.026548672566372</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="AK7">
+        <v>0.9826086956521739</v>
+      </c>
+      <c r="AL7">
+        <v>0.9913793103448276</v>
+      </c>
+      <c r="AM7">
         <v>0.9914529914529915</v>
       </c>
-      <c r="AK7">
+      <c r="AN7">
+        <v>0.982905982905983</v>
+      </c>
+      <c r="AO7">
         <v>1.017543859649123</v>
       </c>
+      <c r="AP7">
+        <v>0.9914529914529915</v>
+      </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.9827586206896551</v>
       </c>
       <c r="AR7">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="AS7">
+        <v>1.028301886792453</v>
+      </c>
+      <c r="AT7">
+        <v>1.008695652173913</v>
+      </c>
+      <c r="AU7">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="AV7">
+        <v>0.9914529914529915</v>
+      </c>
+      <c r="AW7">
+        <v>0.9316239316239316</v>
+      </c>
+      <c r="AX7">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>1.008771929824561</v>
+      </c>
+      <c r="BB7">
+        <v>1.008771929824561</v>
+      </c>
+      <c r="BC7">
+        <v>0.9568965517241379</v>
+      </c>
+      <c r="BD7">
+        <v>0.9827586206896551</v>
+      </c>
+      <c r="BE7">
+        <v>0.9557522123893806</v>
+      </c>
+      <c r="BF7">
+        <v>1.008547008547009</v>
+      </c>
+      <c r="BG7">
+        <v>0.9915254237288136</v>
+      </c>
+      <c r="BH7">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="BI7">
+        <v>1.045454545454546</v>
+      </c>
+      <c r="BJ7">
+        <v>0.9572649572649573</v>
+      </c>
+      <c r="BK7">
+        <v>0.9210526315789475</v>
+      </c>
+      <c r="BL7">
+        <v>0.9734513274336283</v>
+      </c>
+      <c r="BM7">
+        <v>1.008695652173913</v>
+      </c>
+      <c r="BN7">
+        <v>0.9649122807017544</v>
+      </c>
+      <c r="BO7">
+        <v>1.008620689655172</v>
+      </c>
+      <c r="BP7">
+        <v>1.008771929824561</v>
+      </c>
+      <c r="BQ7">
+        <v>1</v>
+      </c>
+      <c r="BR7">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="BT7">
+        <v>1</v>
+      </c>
+      <c r="BU7">
+        <v>1.008547008547009</v>
+      </c>
+      <c r="BV7">
+        <v>0.9391304347826087</v>
+      </c>
+      <c r="BW7">
+        <v>1.017241379310345</v>
+      </c>
+      <c r="BX7">
+        <v>1</v>
+      </c>
+      <c r="BY7">
+        <v>1.019230769230769</v>
+      </c>
+      <c r="BZ7">
+        <v>0.9915254237288136</v>
+      </c>
+      <c r="CA7">
+        <v>0.9741379310344828</v>
+      </c>
+      <c r="CB7">
+        <v>1</v>
+      </c>
+      <c r="CC7">
+        <v>1.008547008547009</v>
+      </c>
+      <c r="CD7">
+        <v>0.9827586206896551</v>
+      </c>
+      <c r="CE7">
+        <v>0.9145299145299145</v>
+      </c>
+      <c r="CF7">
+        <v>0.9553571428571428</v>
+      </c>
+      <c r="CG7">
+        <v>1.097087378640777</v>
+      </c>
+      <c r="CH7">
         <v>0.9830508474576272</v>
       </c>
-      <c r="AS7">
+      <c r="CI7">
+        <v>0.9732142857142857</v>
+      </c>
+      <c r="CK7">
         <v>0.9913793103448276</v>
       </c>
-      <c r="AT7">
-        <v>0.9915254237288136</v>
-      </c>
-      <c r="AU7">
-        <v>0.9915254237288136</v>
-      </c>
-      <c r="AX7">
-        <v>1</v>
-      </c>
-      <c r="BB7">
-        <v>1.017391304347826</v>
-      </c>
-      <c r="BC7">
-        <v>0.9915254237288136</v>
-      </c>
-      <c r="BI7">
-        <v>1.017241379310345</v>
-      </c>
-      <c r="BJ7">
-        <v>1.008695652173913</v>
-      </c>
-      <c r="BK7">
-        <v>1</v>
-      </c>
-      <c r="BP7">
-        <v>1.017857142857143</v>
-      </c>
-      <c r="BR7">
-        <v>0.9913793103448276</v>
-      </c>
-      <c r="BS7">
-        <v>1.036036036036036</v>
-      </c>
-      <c r="BU7">
-        <v>1.026315789473684</v>
-      </c>
-      <c r="BV7">
-        <v>1.008620689655172</v>
-      </c>
-      <c r="CF7">
-        <v>1.008620689655172</v>
-      </c>
-      <c r="CG7">
-        <v>1</v>
-      </c>
-      <c r="CH7">
-        <v>0.9739130434782608</v>
+      <c r="CL7">
+        <v>1.055045871559633</v>
+      </c>
+      <c r="CM7">
+        <v>1</v>
+      </c>
+      <c r="CN7">
+        <v>1.138613861386139</v>
+      </c>
+      <c r="CO7">
+        <v>0.9912280701754387</v>
+      </c>
+      <c r="CP7">
+        <v>0.9557522123893806</v>
+      </c>
+      <c r="CQ7">
+        <v>0.9827586206896551</v>
+      </c>
+      <c r="CR7">
+        <v>1.044642857142857</v>
+      </c>
+      <c r="CS7">
+        <v>1.064220183486239</v>
+      </c>
+      <c r="CT7">
+        <v>0.9491525423728814</v>
+      </c>
+      <c r="CU7">
+        <v>0.9454545454545455</v>
+      </c>
+      <c r="CV7">
+        <v>1.017543859649123</v>
       </c>
     </row>
   </sheetData>
